--- a/doc/curve/out_ResNet.xlsx
+++ b/doc/curve/out_ResNet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albara.ramli/Desktop/app/curve/eye-project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albara.ramli/Desktop/app/doc/curve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E3C65B-2446-5940-A3D9-059080767305}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C717F001-1186-4740-9747-089F5EF2CDA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17232,6 +17232,3566 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Acc per epoch</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> for each batch size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>16 val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="58000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:tint val="58000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="58000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="58000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1-out'!$B$406:$B$505</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1-out'!$F$406:$F$505</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.87639999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97809999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97350000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98560000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98770000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98970000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98729999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99019999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99060000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99039999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.98970000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99050000000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99039999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.98860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99029999999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99060000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.99050000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.99119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.99180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.99099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.99119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.99080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.9909</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.99119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.99160000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.99150000000000005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.9919</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.99180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.99119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.99150000000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.9909</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.99170000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.99170000000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.99129999999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.99160000000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.99180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.99209999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.99209999999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.99219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.99199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.9919</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.99229999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.99250000000000005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.99229999999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.99250000000000005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.99219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.99219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.99219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.99229999999999996</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.99260000000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.99239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.99229999999999996</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.99219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.99229999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.99219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.99209999999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.99219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.99219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.99219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.99209999999999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.99229999999999996</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.99229999999999996</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.99219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.99219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.99219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.99219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.99219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.99239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.99219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.99219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.99229999999999996</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.99229999999999996</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.99229999999999996</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.99219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.99219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.99219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.99229999999999996</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.99229999999999996</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.99239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.99229999999999996</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.99229999999999996</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.99250000000000005</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.99229999999999996</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.99219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.99229999999999996</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.99229999999999996</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.99229999999999996</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.99229999999999996</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.99229999999999996</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.99229999999999996</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.99219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.99250000000000005</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.99229999999999996</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99229999999999996</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99229999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1130-BB41-8626-253A9FB2E141}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>16</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="58000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:shade val="58000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="58000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="58000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1-out'!$B$406:$B$505</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1-out'!$D$406:$D$505</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.85129999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98109999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98519999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98640000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98740000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98850000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98850000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98950000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98950000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99050000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99070000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99129999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99139999999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99139999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99209999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99160000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99150000000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99160000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9919</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.99219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.99209999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.99199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.99199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.99219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.99270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.99260000000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.99239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.99250000000000005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.99270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.99280000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.99299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.99309999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.9929</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.99339999999999995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.9929</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.99329999999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.99319999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.99339999999999995</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.99419999999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.99390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.99380000000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.99409999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.99390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.99419999999999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.99429999999999996</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.99439999999999995</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.99429999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.99419999999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.99450000000000005</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.99439999999999995</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.99419999999999997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.99429999999999996</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.99450000000000005</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.99450000000000005</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.99450000000000005</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.99419999999999997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.99439999999999995</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.99439999999999995</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.99419999999999997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.99439999999999995</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.99450000000000005</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.99460000000000004</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.99429999999999996</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.99460000000000004</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.99429999999999996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.99439999999999995</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.99460000000000004</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.99470000000000003</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.99450000000000005</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.99419999999999997</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.99439999999999995</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.99450000000000005</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.99439999999999995</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.99460000000000004</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.99419999999999997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.99439999999999995</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.99450000000000005</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.99470000000000003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.99460000000000004</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.99460000000000004</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.99439999999999995</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.99429999999999996</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.99450000000000005</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.99439999999999995</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.99470000000000003</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.99460000000000004</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.99470000000000003</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.99460000000000004</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.99480000000000002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.99460000000000004</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.99429999999999996</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.99450000000000005</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.99429999999999996</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99439999999999995</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99480000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1130-BB41-8626-253A9FB2E141}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2050818383"/>
+        <c:axId val="2053261343"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2050818383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># of epochs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2053261343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2053261343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Acc</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2050818383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Loss per epoch</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> for each batch size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>16 val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="58000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:tint val="58000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="58000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="58000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1-out'!$B$406:$B$505</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1-out'!$E$406:$E$505</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.33169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1099999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1300000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3099999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3799999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.81E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.7799999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.0099999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.7699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.6499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.7199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.53E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.58E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.64E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.7199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.4799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.5700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.6100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.53E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.5499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.7099999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.5100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.63E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.7199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.47E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.5499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.52E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.52E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.4799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.4899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.52E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.5100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.53E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.53E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.5399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.5600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.53E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.52E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.53E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.5399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.5499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.5600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.5600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.5600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.5600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.5600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.5600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.5499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.5499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.5600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.5600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.5600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.5600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.5499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.5700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.5600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.5600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.5700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.5700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.5600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.5600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.5600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.5600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.5600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.5600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.5700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.5600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.5700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.5600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.5700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.5700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.5700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.5600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.5600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.5600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.5700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.5700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.5700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.5700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.5600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.5600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.5600000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3834-1545-9E67-999A8D4F7CA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>16</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="58000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:shade val="58000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="58000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="58000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1-out'!$B$406:$B$505</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1-out'!$C$406:$C$505</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.32300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.85E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.36E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.95E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5799999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3300000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1399999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.3300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.29E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.24E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.2200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.06E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.06E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.01E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.9199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.9099999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.95E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.9199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.8800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.8700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.8599999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.72E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.7399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.7600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.6799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.5299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.5100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.5800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.47E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.4200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.49E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.49E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.43E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.41E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.43E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.46E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.41E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.43E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.41E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.41E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.38E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.43E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.37E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.3899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.3899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.3599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.38E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.38E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.37E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.41E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.3599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.43E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.37E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.34E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.38E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.41E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.3899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.3299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.3599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.3899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.37E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.38E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.41E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.37E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.3899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.38E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.3299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.38E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.4200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.3899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.38E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.34E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-3834-1545-9E67-999A8D4F7CA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2050818383"/>
+        <c:axId val="2053261343"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2050818383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># of epochs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2053261343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2053261343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Loss</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2050818383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
@@ -17377,6 +20937,18 @@
     <a:lumMod val="50000"/>
     <a:lumOff val="50000"/>
   </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
 </cs:colorStyle>
 </file>
 
@@ -19532,6 +23104,1082 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -19679,6 +24327,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>725714</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>139263</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>368398</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>77523</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05A63BED-4DE4-BB4A-8078-28963856FDBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>644407</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>287091</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>74332</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C46DF7D-8916-164A-9BCC-A317EF368F1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19986,8 +24710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F606"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="38" workbookViewId="0">
-      <selection activeCell="AF55" sqref="AF55"/>
+    <sheetView tabSelected="1" topLeftCell="E57" zoomScale="56" zoomScaleNormal="38" workbookViewId="0">
+      <selection activeCell="AG70" sqref="AG70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
